--- a/models/regression_model_6m/pycaret_tables.xlsx
+++ b/models/regression_model_6m/pycaret_tables.xlsx
@@ -586,7 +586,7 @@
         <v>0.1047</v>
       </c>
       <c r="I2">
-        <v>0.07199999999999999</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -615,7 +615,7 @@
         <v>0.1169</v>
       </c>
       <c r="I3">
-        <v>0.046</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -644,7 +644,7 @@
         <v>0.123</v>
       </c>
       <c r="I4">
-        <v>0.094</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -673,7 +673,7 @@
         <v>0.14</v>
       </c>
       <c r="I5">
-        <v>0.042</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -702,7 +702,7 @@
         <v>0.1354</v>
       </c>
       <c r="I6">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -731,7 +731,7 @@
         <v>0.1672</v>
       </c>
       <c r="I7">
-        <v>1.046</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -789,7 +789,7 @@
         <v>0.1381</v>
       </c>
       <c r="I9">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -847,7 +847,7 @@
         <v>0.1666</v>
       </c>
       <c r="I11">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -876,7 +876,7 @@
         <v>0.1681</v>
       </c>
       <c r="I12">
-        <v>0.512</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -905,7 +905,7 @@
         <v>0.1557</v>
       </c>
       <c r="I13">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -963,7 +963,7 @@
         <v>0.1807</v>
       </c>
       <c r="I15">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1050,7 +1050,7 @@
         <v>0.4737</v>
       </c>
       <c r="I18">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1079,7 +1079,7 @@
         <v>18.7279</v>
       </c>
       <c r="I19">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
   </sheetData>
@@ -1188,22 +1188,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>3.0283</v>
+        <v>1.3982</v>
       </c>
       <c r="D2">
-        <v>17.3493</v>
+        <v>5.2116</v>
       </c>
       <c r="E2">
-        <v>4.1652</v>
+        <v>2.2829</v>
       </c>
       <c r="F2">
-        <v>0.9708</v>
+        <v>0.9921</v>
       </c>
       <c r="G2">
-        <v>0.07439999999999999</v>
+        <v>0.0441</v>
       </c>
       <c r="H2">
-        <v>0.0544</v>
+        <v>0.0238</v>
       </c>
     </row>
   </sheetData>

--- a/models/regression_model_6m/pycaret_tables.xlsx
+++ b/models/regression_model_6m/pycaret_tables.xlsx
@@ -56,21 +56,21 @@
     <t>gbr</t>
   </si>
   <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>lightgbm</t>
+  </si>
+  <si>
     <t>rf</t>
   </si>
   <si>
-    <t>ada</t>
-  </si>
-  <si>
-    <t>lightgbm</t>
+    <t>ridge</t>
   </si>
   <si>
     <t>lr</t>
   </si>
   <si>
-    <t>ridge</t>
-  </si>
-  <si>
     <t>knn</t>
   </si>
   <si>
@@ -80,21 +80,21 @@
     <t>huber</t>
   </si>
   <si>
+    <t>par</t>
+  </si>
+  <si>
     <t>lasso</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>dt</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>omp</t>
   </si>
   <si>
-    <t>par</t>
-  </si>
-  <si>
     <t>llar</t>
   </si>
   <si>
@@ -110,21 +110,21 @@
     <t>Gradient Boosting Regressor</t>
   </si>
   <si>
+    <t>AdaBoost Regressor</t>
+  </si>
+  <si>
+    <t>Light Gradient Boosting Machine</t>
+  </si>
+  <si>
     <t>Random Forest Regressor</t>
   </si>
   <si>
-    <t>AdaBoost Regressor</t>
-  </si>
-  <si>
-    <t>Light Gradient Boosting Machine</t>
+    <t>Ridge Regression</t>
   </si>
   <si>
     <t>Linear Regression</t>
   </si>
   <si>
-    <t>Ridge Regression</t>
-  </si>
-  <si>
     <t>K Neighbors Regressor</t>
   </si>
   <si>
@@ -134,19 +134,19 @@
     <t>Huber Regressor</t>
   </si>
   <si>
+    <t>Passive Aggressive Regressor</t>
+  </si>
+  <si>
     <t>Lasso Regression</t>
   </si>
   <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
     <t>Decision Tree Regressor</t>
   </si>
   <si>
-    <t>Elastic Net</t>
-  </si>
-  <si>
     <t>Orthogonal Matching Pursuit</t>
-  </si>
-  <si>
-    <t>Passive Aggressive Regressor</t>
   </si>
   <si>
     <t>Lasso Least Angle Regression</t>
@@ -568,25 +568,25 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5.5594</v>
+        <v>5.3199</v>
       </c>
       <c r="D2">
-        <v>73.70489999999999</v>
+        <v>63.9311</v>
       </c>
       <c r="E2">
-        <v>8.4816</v>
+        <v>7.9148</v>
       </c>
       <c r="F2">
-        <v>0.871</v>
+        <v>0.9004</v>
       </c>
       <c r="G2">
-        <v>0.1482</v>
+        <v>0.138</v>
       </c>
       <c r="H2">
-        <v>0.1047</v>
+        <v>0.0998</v>
       </c>
       <c r="I2">
-        <v>0.09</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,22 +597,22 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>6.2188</v>
+        <v>5.9802</v>
       </c>
       <c r="D3">
-        <v>85.0515</v>
+        <v>69.2971</v>
       </c>
       <c r="E3">
-        <v>9.0861</v>
+        <v>8.299200000000001</v>
       </c>
       <c r="F3">
-        <v>0.8512</v>
+        <v>0.8939</v>
       </c>
       <c r="G3">
-        <v>0.1595</v>
+        <v>0.1468</v>
       </c>
       <c r="H3">
-        <v>0.1169</v>
+        <v>0.1103</v>
       </c>
       <c r="I3">
         <v>0.054</v>
@@ -626,25 +626,25 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>6.8388</v>
+        <v>7.2002</v>
       </c>
       <c r="D4">
-        <v>107.357</v>
+        <v>102.4191</v>
       </c>
       <c r="E4">
-        <v>10.303</v>
+        <v>10.0298</v>
       </c>
       <c r="F4">
-        <v>0.8225</v>
+        <v>0.851</v>
       </c>
       <c r="G4">
-        <v>0.1691</v>
+        <v>0.1657</v>
       </c>
       <c r="H4">
-        <v>0.123</v>
+        <v>0.1303</v>
       </c>
       <c r="I4">
-        <v>0.08799999999999999</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,25 +655,25 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>7.3003</v>
+        <v>7.1702</v>
       </c>
       <c r="D5">
-        <v>109.0278</v>
+        <v>104.4351</v>
       </c>
       <c r="E5">
-        <v>10.3647</v>
+        <v>10.1754</v>
       </c>
       <c r="F5">
-        <v>0.8207</v>
+        <v>0.8342000000000001</v>
       </c>
       <c r="G5">
-        <v>0.1799</v>
+        <v>0.1752</v>
       </c>
       <c r="H5">
-        <v>0.14</v>
+        <v>0.1352</v>
       </c>
       <c r="I5">
-        <v>0.06</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -684,25 +684,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>7.4772</v>
+        <v>6.9484</v>
       </c>
       <c r="D6">
-        <v>114.2278</v>
+        <v>116.0704</v>
       </c>
       <c r="E6">
-        <v>10.6544</v>
+        <v>10.6758</v>
       </c>
       <c r="F6">
-        <v>0.8144</v>
+        <v>0.8242</v>
       </c>
       <c r="G6">
-        <v>0.1781</v>
+        <v>0.1708</v>
       </c>
       <c r="H6">
-        <v>0.1354</v>
+        <v>0.1253</v>
       </c>
       <c r="I6">
-        <v>0.032</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -713,25 +713,25 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>8.515700000000001</v>
+        <v>8.1515</v>
       </c>
       <c r="D7">
-        <v>130.0237</v>
+        <v>132.4982</v>
       </c>
       <c r="E7">
-        <v>11.3696</v>
+        <v>11.304</v>
       </c>
       <c r="F7">
-        <v>0.7905</v>
+        <v>0.7988</v>
       </c>
       <c r="G7">
-        <v>0.2629</v>
+        <v>0.2041</v>
       </c>
       <c r="H7">
-        <v>0.1672</v>
+        <v>0.1516</v>
       </c>
       <c r="I7">
-        <v>1.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -742,25 +742,25 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>8.241</v>
+        <v>8.0716</v>
       </c>
       <c r="D8">
-        <v>131.1705</v>
+        <v>129.6849</v>
       </c>
       <c r="E8">
-        <v>11.3924</v>
+        <v>11.3119</v>
       </c>
       <c r="F8">
-        <v>0.7906</v>
+        <v>0.7998</v>
       </c>
       <c r="G8">
-        <v>0.1984</v>
+        <v>0.2198</v>
       </c>
       <c r="H8">
-        <v>0.154</v>
+        <v>0.1541</v>
       </c>
       <c r="I8">
-        <v>0.02</v>
+        <v>1.522</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -771,25 +771,25 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.6885</v>
+        <v>7.4849</v>
       </c>
       <c r="D9">
-        <v>133.8207</v>
+        <v>133.2642</v>
       </c>
       <c r="E9">
-        <v>11.4489</v>
+        <v>11.3288</v>
       </c>
       <c r="F9">
-        <v>0.782</v>
+        <v>0.7967</v>
       </c>
       <c r="G9">
-        <v>0.1823</v>
+        <v>0.1806</v>
       </c>
       <c r="H9">
-        <v>0.1381</v>
+        <v>0.1373</v>
       </c>
       <c r="I9">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -800,25 +800,25 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>8.4057</v>
+        <v>8.2377</v>
       </c>
       <c r="D10">
-        <v>139.811</v>
+        <v>135.756</v>
       </c>
       <c r="E10">
-        <v>11.7601</v>
+        <v>11.4217</v>
       </c>
       <c r="F10">
-        <v>0.7774</v>
+        <v>0.7948</v>
       </c>
       <c r="G10">
-        <v>0.1973</v>
+        <v>0.2002</v>
       </c>
       <c r="H10">
-        <v>0.1563</v>
+        <v>0.1532</v>
       </c>
       <c r="I10">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -829,25 +829,25 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>8.801299999999999</v>
+        <v>8.1234</v>
       </c>
       <c r="D11">
-        <v>140.1657</v>
+        <v>139.063</v>
       </c>
       <c r="E11">
-        <v>11.7863</v>
+        <v>11.6388</v>
       </c>
       <c r="F11">
-        <v>0.7762</v>
+        <v>0.785</v>
       </c>
       <c r="G11">
-        <v>0.2119</v>
+        <v>0.2413</v>
       </c>
       <c r="H11">
-        <v>0.1666</v>
+        <v>0.1541</v>
       </c>
       <c r="I11">
-        <v>0.03</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -858,25 +858,25 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>9.2456</v>
+        <v>9.039400000000001</v>
       </c>
       <c r="D12">
-        <v>178.8136</v>
+        <v>157.0907</v>
       </c>
       <c r="E12">
-        <v>13.2793</v>
+        <v>12.4066</v>
       </c>
       <c r="F12">
-        <v>0.7189</v>
+        <v>0.7483</v>
       </c>
       <c r="G12">
-        <v>0.2108</v>
+        <v>0.2548</v>
       </c>
       <c r="H12">
-        <v>0.1681</v>
+        <v>0.1737</v>
       </c>
       <c r="I12">
-        <v>0.544</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -887,25 +887,25 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>8.578799999999999</v>
+        <v>9.053599999999999</v>
       </c>
       <c r="D13">
-        <v>190.3473</v>
+        <v>194.4216</v>
       </c>
       <c r="E13">
-        <v>13.4424</v>
+        <v>13.7369</v>
       </c>
       <c r="F13">
-        <v>0.6714</v>
+        <v>0.7102000000000001</v>
       </c>
       <c r="G13">
-        <v>0.2103</v>
+        <v>0.2142</v>
       </c>
       <c r="H13">
-        <v>0.1557</v>
+        <v>0.1669</v>
       </c>
       <c r="I13">
-        <v>0.022</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -916,25 +916,25 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>9.4656</v>
+        <v>9.4148</v>
       </c>
       <c r="D14">
-        <v>189.2666</v>
+        <v>207.3899</v>
       </c>
       <c r="E14">
-        <v>13.6883</v>
+        <v>14.1927</v>
       </c>
       <c r="F14">
-        <v>0.7025</v>
+        <v>0.6944</v>
       </c>
       <c r="G14">
-        <v>0.2187</v>
+        <v>0.2246</v>
       </c>
       <c r="H14">
-        <v>0.176</v>
+        <v>0.1776</v>
       </c>
       <c r="I14">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -945,25 +945,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>9.9308</v>
+        <v>9.2181</v>
       </c>
       <c r="D15">
-        <v>195.0073</v>
+        <v>218.9816</v>
       </c>
       <c r="E15">
-        <v>13.8925</v>
+        <v>14.2632</v>
       </c>
       <c r="F15">
-        <v>0.6901</v>
+        <v>0.6817</v>
       </c>
       <c r="G15">
-        <v>0.2224</v>
+        <v>0.2208</v>
       </c>
       <c r="H15">
-        <v>0.1807</v>
+        <v>0.1541</v>
       </c>
       <c r="I15">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -974,25 +974,25 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>10.5569</v>
+        <v>10.7343</v>
       </c>
       <c r="D16">
-        <v>204.8506</v>
+        <v>236.8659</v>
       </c>
       <c r="E16">
-        <v>14.2852</v>
+        <v>15.2441</v>
       </c>
       <c r="F16">
-        <v>0.6744</v>
+        <v>0.6346000000000001</v>
       </c>
       <c r="G16">
-        <v>0.2516</v>
+        <v>0.2397</v>
       </c>
       <c r="H16">
-        <v>0.203</v>
+        <v>0.2001</v>
       </c>
       <c r="I16">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1003,25 +1003,25 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>15.9466</v>
+        <v>15.9279</v>
       </c>
       <c r="D17">
-        <v>366.5452</v>
+        <v>380.7668</v>
       </c>
       <c r="E17">
-        <v>18.8883</v>
+        <v>19.1069</v>
       </c>
       <c r="F17">
-        <v>0.4511</v>
+        <v>0.4706</v>
       </c>
       <c r="G17">
-        <v>0.3363</v>
+        <v>0.339</v>
       </c>
       <c r="H17">
-        <v>0.3267</v>
+        <v>0.3269</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1032,25 +1032,25 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>22.2048</v>
+        <v>22.4715</v>
       </c>
       <c r="D18">
-        <v>696.4164</v>
+        <v>722.2723999999999</v>
       </c>
       <c r="E18">
-        <v>26.1418</v>
+        <v>26.5055</v>
       </c>
       <c r="F18">
-        <v>-0.06</v>
+        <v>-0.0271</v>
       </c>
       <c r="G18">
-        <v>0.4629</v>
+        <v>0.4678</v>
       </c>
       <c r="H18">
-        <v>0.4737</v>
+        <v>0.479</v>
       </c>
       <c r="I18">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1061,25 +1061,25 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>1011.4287</v>
+        <v>71.78279999999999</v>
       </c>
       <c r="D19">
-        <v>5698102.678</v>
+        <v>12907.8021</v>
       </c>
       <c r="E19">
-        <v>1247.256</v>
+        <v>92.84</v>
       </c>
       <c r="F19">
-        <v>-8204.862800000001</v>
+        <v>-18.1255</v>
       </c>
       <c r="G19">
-        <v>2.0027</v>
+        <v>1.0156</v>
       </c>
       <c r="H19">
-        <v>18.7279</v>
+        <v>1.5756</v>
       </c>
       <c r="I19">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
     </row>
   </sheetData>
@@ -1126,22 +1126,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>4.9497</v>
+        <v>5.2017</v>
       </c>
       <c r="D2">
-        <v>41.0405</v>
+        <v>46.7547</v>
       </c>
       <c r="E2">
-        <v>6.4063</v>
+        <v>6.8377</v>
       </c>
       <c r="F2">
-        <v>0.9308999999999999</v>
+        <v>0.9147</v>
       </c>
       <c r="G2">
-        <v>0.104</v>
+        <v>0.1048</v>
       </c>
       <c r="H2">
-        <v>0.08160000000000001</v>
+        <v>0.0832</v>
       </c>
     </row>
   </sheetData>
@@ -1188,22 +1188,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>1.3982</v>
+        <v>1.2893</v>
       </c>
       <c r="D2">
-        <v>5.2116</v>
+        <v>5.3536</v>
       </c>
       <c r="E2">
-        <v>2.2829</v>
+        <v>2.3138</v>
       </c>
       <c r="F2">
-        <v>0.9921</v>
+        <v>0.992</v>
       </c>
       <c r="G2">
-        <v>0.0441</v>
+        <v>0.0585</v>
       </c>
       <c r="H2">
-        <v>0.0238</v>
+        <v>0.0253</v>
       </c>
     </row>
   </sheetData>
@@ -1247,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.1056</v>
+        <v>4.5932</v>
       </c>
       <c r="C2">
-        <v>78.4689</v>
+        <v>43.6966</v>
       </c>
       <c r="D2">
-        <v>8.8583</v>
+        <v>6.6103</v>
       </c>
       <c r="E2">
-        <v>0.8357</v>
+        <v>0.922</v>
       </c>
       <c r="F2">
-        <v>0.1755</v>
+        <v>0.1192</v>
       </c>
       <c r="G2">
-        <v>0.1367</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.9324</v>
+        <v>5.1119</v>
       </c>
       <c r="C3">
-        <v>54.4523</v>
+        <v>70.5339</v>
       </c>
       <c r="D3">
-        <v>7.3792</v>
+        <v>8.398400000000001</v>
       </c>
       <c r="E3">
-        <v>0.9256</v>
+        <v>0.9173</v>
       </c>
       <c r="F3">
-        <v>0.1855</v>
+        <v>0.13</v>
       </c>
       <c r="G3">
-        <v>0.1174</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.5836</v>
+        <v>6.4245</v>
       </c>
       <c r="C4">
-        <v>83.1186</v>
+        <v>109.451</v>
       </c>
       <c r="D4">
-        <v>9.116899999999999</v>
+        <v>10.4619</v>
       </c>
       <c r="E4">
-        <v>0.8801</v>
+        <v>0.8258</v>
       </c>
       <c r="F4">
-        <v>0.1493</v>
+        <v>0.226</v>
       </c>
       <c r="G4">
-        <v>0.1027</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1316,22 +1316,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.7475</v>
+        <v>7.0571</v>
       </c>
       <c r="C5">
-        <v>85.3925</v>
+        <v>108.1635</v>
       </c>
       <c r="D5">
-        <v>9.2408</v>
+        <v>10.4002</v>
       </c>
       <c r="E5">
-        <v>0.9123</v>
+        <v>0.895</v>
       </c>
       <c r="F5">
-        <v>0.1054</v>
+        <v>0.1206</v>
       </c>
       <c r="G5">
-        <v>0.0775</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.9968</v>
+        <v>5.9014</v>
       </c>
       <c r="C6">
-        <v>95.66079999999999</v>
+        <v>73.0885</v>
       </c>
       <c r="D6">
-        <v>9.7806</v>
+        <v>8.549200000000001</v>
       </c>
       <c r="E6">
-        <v>0.7809</v>
+        <v>0.8266</v>
       </c>
       <c r="F6">
-        <v>0.1542</v>
+        <v>0.1515</v>
       </c>
       <c r="G6">
-        <v>0.1186</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1362,22 +1362,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.8732</v>
+        <v>5.8176</v>
       </c>
       <c r="C7">
-        <v>79.4186</v>
+        <v>80.9867</v>
       </c>
       <c r="D7">
-        <v>8.8752</v>
+        <v>8.884</v>
       </c>
       <c r="E7">
-        <v>0.8669</v>
+        <v>0.8774</v>
       </c>
       <c r="F7">
-        <v>0.154</v>
+        <v>0.1495</v>
       </c>
       <c r="G7">
-        <v>0.1106</v>
+        <v>0.1087</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1385,22 +1385,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6784</v>
+        <v>0.8842</v>
       </c>
       <c r="C8">
-        <v>13.6924</v>
+        <v>24.9439</v>
       </c>
       <c r="D8">
-        <v>0.8063</v>
+        <v>1.4357</v>
       </c>
       <c r="E8">
-        <v>0.053</v>
+        <v>0.0427</v>
       </c>
       <c r="F8">
-        <v>0.0277</v>
+        <v>0.04</v>
       </c>
       <c r="G8">
-        <v>0.0197</v>
+        <v>0.0252</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.2789</v>
+        <v>4.3369</v>
       </c>
       <c r="C2">
-        <v>94.42140000000001</v>
+        <v>35.6506</v>
       </c>
       <c r="D2">
-        <v>9.7171</v>
+        <v>5.9708</v>
       </c>
       <c r="E2">
-        <v>0.8023</v>
+        <v>0.9364</v>
       </c>
       <c r="F2">
-        <v>0.1751</v>
+        <v>0.1014</v>
       </c>
       <c r="G2">
-        <v>0.146</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1467,22 +1467,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.6643</v>
+        <v>5.0391</v>
       </c>
       <c r="C3">
-        <v>56.6118</v>
+        <v>62.9538</v>
       </c>
       <c r="D3">
-        <v>7.5241</v>
+        <v>7.9343</v>
       </c>
       <c r="E3">
-        <v>0.9226</v>
+        <v>0.9262</v>
       </c>
       <c r="F3">
-        <v>0.1871</v>
+        <v>0.132</v>
       </c>
       <c r="G3">
-        <v>0.1149</v>
+        <v>0.0959</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.6634</v>
+        <v>5.6419</v>
       </c>
       <c r="C4">
-        <v>91.0981</v>
+        <v>72.2683</v>
       </c>
       <c r="D4">
-        <v>9.544499999999999</v>
+        <v>8.501099999999999</v>
       </c>
       <c r="E4">
-        <v>0.8686</v>
+        <v>0.885</v>
       </c>
       <c r="F4">
-        <v>0.1648</v>
+        <v>0.1912</v>
       </c>
       <c r="G4">
-        <v>0.1166</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.1337</v>
+        <v>6.5388</v>
       </c>
       <c r="C5">
-        <v>84.051</v>
+        <v>97.8526</v>
       </c>
       <c r="D5">
-        <v>9.167899999999999</v>
+        <v>9.891999999999999</v>
       </c>
       <c r="E5">
-        <v>0.9137</v>
+        <v>0.905</v>
       </c>
       <c r="F5">
-        <v>0.1055</v>
+        <v>0.1209</v>
       </c>
       <c r="G5">
-        <v>0.0862</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.1212</v>
+        <v>5.1841</v>
       </c>
       <c r="C6">
-        <v>55.1993</v>
+        <v>44.8922</v>
       </c>
       <c r="D6">
-        <v>7.4296</v>
+        <v>6.7002</v>
       </c>
       <c r="E6">
-        <v>0.8736</v>
+        <v>0.8935</v>
       </c>
       <c r="F6">
-        <v>0.1235</v>
+        <v>0.1267</v>
       </c>
       <c r="G6">
-        <v>0.1045</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.1723</v>
+        <v>5.3482</v>
       </c>
       <c r="C7">
-        <v>76.27630000000001</v>
+        <v>62.7235</v>
       </c>
       <c r="D7">
-        <v>8.676600000000001</v>
+        <v>7.7997</v>
       </c>
       <c r="E7">
-        <v>0.8762</v>
+        <v>0.9092</v>
       </c>
       <c r="F7">
-        <v>0.1512</v>
+        <v>0.1345</v>
       </c>
       <c r="G7">
-        <v>0.1136</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8653</v>
+        <v>0.7279</v>
       </c>
       <c r="C8">
-        <v>16.9724</v>
+        <v>21.7996</v>
       </c>
       <c r="D8">
-        <v>0.996</v>
+        <v>1.3742</v>
       </c>
       <c r="E8">
-        <v>0.0426</v>
+        <v>0.0194</v>
       </c>
       <c r="F8">
-        <v>0.0313</v>
+        <v>0.0302</v>
       </c>
       <c r="G8">
-        <v>0.0195</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.0998</v>
+        <v>7.3245</v>
       </c>
       <c r="C2">
-        <v>75.88500000000001</v>
+        <v>81.55540000000001</v>
       </c>
       <c r="D2">
-        <v>8.7112</v>
+        <v>9.030799999999999</v>
       </c>
       <c r="E2">
-        <v>0.8411</v>
+        <v>0.8545</v>
       </c>
       <c r="F2">
-        <v>0.1731</v>
+        <v>0.1613</v>
       </c>
       <c r="G2">
-        <v>0.1353</v>
+        <v>0.1391</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1664,22 +1664,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.9683</v>
+        <v>5.9437</v>
       </c>
       <c r="C3">
-        <v>65.0217</v>
+        <v>91.2149</v>
       </c>
       <c r="D3">
-        <v>8.063599999999999</v>
+        <v>9.550700000000001</v>
       </c>
       <c r="E3">
-        <v>0.9112</v>
+        <v>0.8931</v>
       </c>
       <c r="F3">
-        <v>0.1885</v>
+        <v>0.1493</v>
       </c>
       <c r="G3">
-        <v>0.1152</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1687,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.8361</v>
+        <v>7.1358</v>
       </c>
       <c r="C4">
-        <v>79.9611</v>
+        <v>97.5356</v>
       </c>
       <c r="D4">
-        <v>8.9421</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="E4">
-        <v>0.8846000000000001</v>
+        <v>0.8448</v>
       </c>
       <c r="F4">
-        <v>0.1483</v>
+        <v>0.2042</v>
       </c>
       <c r="G4">
-        <v>0.1027</v>
+        <v>0.1552</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1710,22 +1710,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.9966</v>
+        <v>8.2011</v>
       </c>
       <c r="C5">
-        <v>104.7583</v>
+        <v>143.1737</v>
       </c>
       <c r="D5">
-        <v>10.2351</v>
+        <v>11.9655</v>
       </c>
       <c r="E5">
-        <v>0.8924</v>
+        <v>0.861</v>
       </c>
       <c r="F5">
-        <v>0.1138</v>
+        <v>0.1581</v>
       </c>
       <c r="G5">
-        <v>0.08069999999999999</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1733,22 +1733,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.7234</v>
+        <v>6.2101</v>
       </c>
       <c r="C6">
-        <v>83.2282</v>
+        <v>71.4468</v>
       </c>
       <c r="D6">
-        <v>9.122999999999999</v>
+        <v>8.4526</v>
       </c>
       <c r="E6">
-        <v>0.8094</v>
+        <v>0.8305</v>
       </c>
       <c r="F6">
-        <v>0.1457</v>
+        <v>0.1532</v>
       </c>
       <c r="G6">
-        <v>0.1132</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1756,22 +1756,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.9249</v>
+        <v>6.963</v>
       </c>
       <c r="C7">
-        <v>81.7709</v>
+        <v>96.9853</v>
       </c>
       <c r="D7">
-        <v>9.015000000000001</v>
+        <v>9.7751</v>
       </c>
       <c r="E7">
-        <v>0.8677</v>
+        <v>0.8568</v>
       </c>
       <c r="F7">
-        <v>0.1539</v>
+        <v>0.1652</v>
       </c>
       <c r="G7">
-        <v>0.1094</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1779,22 +1779,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.5649999999999999</v>
+        <v>0.8123</v>
       </c>
       <c r="C8">
-        <v>13.0307</v>
+        <v>24.7276</v>
       </c>
       <c r="D8">
-        <v>0.7076</v>
+        <v>1.1968</v>
       </c>
       <c r="E8">
-        <v>0.0371</v>
+        <v>0.0209</v>
       </c>
       <c r="F8">
-        <v>0.0256</v>
+        <v>0.0199</v>
       </c>
       <c r="G8">
-        <v>0.0178</v>
+        <v>0.0179</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.8368</v>
+        <v>4.9326</v>
       </c>
       <c r="C2">
-        <v>112.3344</v>
+        <v>44.548</v>
       </c>
       <c r="D2">
-        <v>10.5988</v>
+        <v>6.6744</v>
       </c>
       <c r="E2">
-        <v>0.7648</v>
+        <v>0.9205</v>
       </c>
       <c r="F2">
-        <v>0.2036</v>
+        <v>0.129</v>
       </c>
       <c r="G2">
-        <v>0.1724</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.5654</v>
+        <v>6.134</v>
       </c>
       <c r="C3">
-        <v>82.7413</v>
+        <v>75.06829999999999</v>
       </c>
       <c r="D3">
-        <v>9.0962</v>
+        <v>8.664199999999999</v>
       </c>
       <c r="E3">
-        <v>0.8869</v>
+        <v>0.912</v>
       </c>
       <c r="F3">
-        <v>0.2036</v>
+        <v>0.1452</v>
       </c>
       <c r="G3">
-        <v>0.1452</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1884,22 +1884,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.8151</v>
+        <v>6.6015</v>
       </c>
       <c r="C4">
-        <v>155.5432</v>
+        <v>91.88639999999999</v>
       </c>
       <c r="D4">
-        <v>12.4717</v>
+        <v>9.585699999999999</v>
       </c>
       <c r="E4">
-        <v>0.7756</v>
+        <v>0.8538</v>
       </c>
       <c r="F4">
-        <v>0.1882</v>
+        <v>0.2168</v>
       </c>
       <c r="G4">
-        <v>0.1362</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1907,22 +1907,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.761</v>
+        <v>7.2649</v>
       </c>
       <c r="C5">
-        <v>97.23090000000001</v>
+        <v>98.4271</v>
       </c>
       <c r="D5">
-        <v>9.8606</v>
+        <v>9.920999999999999</v>
       </c>
       <c r="E5">
-        <v>0.9002</v>
+        <v>0.9044</v>
       </c>
       <c r="F5">
-        <v>0.1376</v>
+        <v>0.1295</v>
       </c>
       <c r="G5">
-        <v>0.109</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1930,22 +1930,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.8645</v>
+        <v>6.8994</v>
       </c>
       <c r="C6">
-        <v>81.4693</v>
+        <v>97.84439999999999</v>
       </c>
       <c r="D6">
-        <v>9.026</v>
+        <v>9.8916</v>
       </c>
       <c r="E6">
-        <v>0.8134</v>
+        <v>0.7679</v>
       </c>
       <c r="F6">
-        <v>0.1563</v>
+        <v>0.1579</v>
       </c>
       <c r="G6">
-        <v>0.1208</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1953,22 +1953,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>7.1686</v>
+        <v>6.3665</v>
       </c>
       <c r="C7">
-        <v>105.8638</v>
+        <v>81.5548</v>
       </c>
       <c r="D7">
-        <v>10.2107</v>
+        <v>8.9474</v>
       </c>
       <c r="E7">
-        <v>0.8282</v>
+        <v>0.8717</v>
       </c>
       <c r="F7">
-        <v>0.1779</v>
+        <v>0.1557</v>
       </c>
       <c r="G7">
-        <v>0.1367</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1976,22 +1976,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.5453</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C8">
-        <v>27.255</v>
+        <v>20.3389</v>
       </c>
       <c r="D8">
-        <v>1.2673</v>
+        <v>1.2242</v>
       </c>
       <c r="E8">
-        <v>0.0559</v>
+        <v>0.0569</v>
       </c>
       <c r="F8">
-        <v>0.0265</v>
+        <v>0.0324</v>
       </c>
       <c r="G8">
-        <v>0.0218</v>
+        <v>0.0202</v>
       </c>
     </row>
   </sheetData>
@@ -2035,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.969</v>
+        <v>5.1422</v>
       </c>
       <c r="C2">
-        <v>121.3178</v>
+        <v>49.0193</v>
       </c>
       <c r="D2">
-        <v>11.0144</v>
+        <v>7.0014</v>
       </c>
       <c r="E2">
-        <v>0.746</v>
+        <v>0.9125</v>
       </c>
       <c r="F2">
-        <v>0.1972</v>
+        <v>0.1244</v>
       </c>
       <c r="G2">
-        <v>0.1632</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.1359</v>
+        <v>5.7533</v>
       </c>
       <c r="C3">
-        <v>76.9709</v>
+        <v>82.8553</v>
       </c>
       <c r="D3">
-        <v>8.773300000000001</v>
+        <v>9.102499999999999</v>
       </c>
       <c r="E3">
-        <v>0.8948</v>
+        <v>0.9029</v>
       </c>
       <c r="F3">
-        <v>0.1795</v>
+        <v>0.1425</v>
       </c>
       <c r="G3">
-        <v>0.1247</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.7605</v>
+        <v>6.5524</v>
       </c>
       <c r="C4">
-        <v>91.9299</v>
+        <v>111.7083</v>
       </c>
       <c r="D4">
-        <v>9.587999999999999</v>
+        <v>10.5692</v>
       </c>
       <c r="E4">
-        <v>0.8673999999999999</v>
+        <v>0.8222</v>
       </c>
       <c r="F4">
-        <v>0.1439</v>
+        <v>0.2287</v>
       </c>
       <c r="G4">
-        <v>0.1102</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.3878</v>
+        <v>7.0978</v>
       </c>
       <c r="C5">
-        <v>95.0123</v>
+        <v>124.4997</v>
       </c>
       <c r="D5">
-        <v>9.747400000000001</v>
+        <v>11.1579</v>
       </c>
       <c r="E5">
-        <v>0.9024</v>
+        <v>0.8791</v>
       </c>
       <c r="F5">
-        <v>0.1192</v>
+        <v>0.1276</v>
       </c>
       <c r="G5">
-        <v>0.09370000000000001</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2127,22 +2127,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.525</v>
+        <v>6.3089</v>
       </c>
       <c r="C6">
-        <v>73.36069999999999</v>
+        <v>79.2972</v>
       </c>
       <c r="D6">
-        <v>8.565099999999999</v>
+        <v>8.9049</v>
       </c>
       <c r="E6">
-        <v>0.832</v>
+        <v>0.8119</v>
       </c>
       <c r="F6">
-        <v>0.1432</v>
+        <v>0.1564</v>
       </c>
       <c r="G6">
-        <v>0.1077</v>
+        <v>0.1177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2150,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.7556</v>
+        <v>6.1709</v>
       </c>
       <c r="C7">
-        <v>91.7183</v>
+        <v>89.476</v>
       </c>
       <c r="D7">
-        <v>9.537699999999999</v>
+        <v>9.347200000000001</v>
       </c>
       <c r="E7">
-        <v>0.8485</v>
+        <v>0.8657</v>
       </c>
       <c r="F7">
-        <v>0.1566</v>
+        <v>0.1559</v>
       </c>
       <c r="G7">
-        <v>0.1199</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2173,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6395</v>
+        <v>0.6718</v>
       </c>
       <c r="C8">
-        <v>16.9795</v>
+        <v>26.4769</v>
       </c>
       <c r="D8">
-        <v>0.8669</v>
+        <v>1.4512</v>
       </c>
       <c r="E8">
-        <v>0.0569</v>
+        <v>0.0413</v>
       </c>
       <c r="F8">
-        <v>0.028</v>
+        <v>0.0381</v>
       </c>
       <c r="G8">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
     </row>
   </sheetData>
@@ -2232,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.7156</v>
+        <v>4.4955</v>
       </c>
       <c r="C2">
-        <v>82.29349999999999</v>
+        <v>37.9031</v>
       </c>
       <c r="D2">
-        <v>9.0716</v>
+        <v>6.1565</v>
       </c>
       <c r="E2">
-        <v>0.8277</v>
+        <v>0.9324</v>
       </c>
       <c r="F2">
-        <v>0.1749</v>
+        <v>0.1133</v>
       </c>
       <c r="G2">
-        <v>0.1435</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.8881</v>
+        <v>5.0529</v>
       </c>
       <c r="C3">
-        <v>56.9211</v>
+        <v>64.8998</v>
       </c>
       <c r="D3">
-        <v>7.5446</v>
+        <v>8.055999999999999</v>
       </c>
       <c r="E3">
-        <v>0.9222</v>
+        <v>0.9239000000000001</v>
       </c>
       <c r="F3">
-        <v>0.1833</v>
+        <v>0.1291</v>
       </c>
       <c r="G3">
-        <v>0.1141</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,22 +2278,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.1759</v>
+        <v>6.0139</v>
       </c>
       <c r="C4">
-        <v>86.4175</v>
+        <v>83.9104</v>
       </c>
       <c r="D4">
-        <v>9.296099999999999</v>
+        <v>9.160299999999999</v>
       </c>
       <c r="E4">
-        <v>0.8753</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="F4">
-        <v>0.1485</v>
+        <v>0.2059</v>
       </c>
       <c r="G4">
-        <v>0.1065</v>
+        <v>0.1434</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2301,22 +2301,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.7356</v>
+        <v>6.5267</v>
       </c>
       <c r="C5">
-        <v>80.4716</v>
+        <v>94.2043</v>
       </c>
       <c r="D5">
-        <v>8.970599999999999</v>
+        <v>9.7059</v>
       </c>
       <c r="E5">
-        <v>0.9174</v>
+        <v>0.9085</v>
       </c>
       <c r="F5">
-        <v>0.1052</v>
+        <v>0.1199</v>
       </c>
       <c r="G5">
-        <v>0.0825</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2324,22 +2324,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.3457</v>
+        <v>5.5615</v>
       </c>
       <c r="C6">
-        <v>69.8126</v>
+        <v>56.9877</v>
       </c>
       <c r="D6">
-        <v>8.355399999999999</v>
+        <v>7.549</v>
       </c>
       <c r="E6">
-        <v>0.8401</v>
+        <v>0.8648</v>
       </c>
       <c r="F6">
-        <v>0.1371</v>
+        <v>0.1369</v>
       </c>
       <c r="G6">
-        <v>0.1073</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2347,22 +2347,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.9722</v>
+        <v>5.5301</v>
       </c>
       <c r="C7">
-        <v>75.1833</v>
+        <v>67.58110000000001</v>
       </c>
       <c r="D7">
-        <v>8.6477</v>
+        <v>8.1256</v>
       </c>
       <c r="E7">
-        <v>0.8764999999999999</v>
+        <v>0.8992</v>
       </c>
       <c r="F7">
-        <v>0.1498</v>
+        <v>0.141</v>
       </c>
       <c r="G7">
-        <v>0.1108</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2370,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6269</v>
+        <v>0.7108</v>
       </c>
       <c r="C8">
-        <v>10.6497</v>
+        <v>19.8778</v>
       </c>
       <c r="D8">
-        <v>0.6335</v>
+        <v>1.2476</v>
       </c>
       <c r="E8">
-        <v>0.0386</v>
+        <v>0.0285</v>
       </c>
       <c r="F8">
-        <v>0.028</v>
+        <v>0.0334</v>
       </c>
       <c r="G8">
-        <v>0.0196</v>
+        <v>0.0211</v>
       </c>
     </row>
   </sheetData>
@@ -2429,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.9766</v>
+        <v>4.1716</v>
       </c>
       <c r="C2">
-        <v>71.2015</v>
+        <v>33.194</v>
       </c>
       <c r="D2">
-        <v>8.4381</v>
+        <v>5.7614</v>
       </c>
       <c r="E2">
-        <v>0.8509</v>
+        <v>0.9408</v>
       </c>
       <c r="F2">
-        <v>0.1545</v>
+        <v>0.1048</v>
       </c>
       <c r="G2">
-        <v>0.121</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2452,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.5362</v>
+        <v>4.0756</v>
       </c>
       <c r="C3">
-        <v>50.885</v>
+        <v>36.1171</v>
       </c>
       <c r="D3">
-        <v>7.1334</v>
+        <v>6.0097</v>
       </c>
       <c r="E3">
-        <v>0.9305</v>
+        <v>0.9577</v>
       </c>
       <c r="F3">
-        <v>0.1821</v>
+        <v>0.1082</v>
       </c>
       <c r="G3">
-        <v>0.1112</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2475,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.6099</v>
+        <v>5.8799</v>
       </c>
       <c r="C4">
-        <v>66.27670000000001</v>
+        <v>84.3295</v>
       </c>
       <c r="D4">
-        <v>8.1411</v>
+        <v>9.1831</v>
       </c>
       <c r="E4">
-        <v>0.9044</v>
+        <v>0.8658</v>
       </c>
       <c r="F4">
-        <v>0.1325</v>
+        <v>0.2063</v>
       </c>
       <c r="G4">
-        <v>0.0963</v>
+        <v>0.1399</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2498,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.8474</v>
+        <v>7.0376</v>
       </c>
       <c r="C5">
-        <v>88.68689999999999</v>
+        <v>96.3381</v>
       </c>
       <c r="D5">
-        <v>9.417400000000001</v>
+        <v>9.815200000000001</v>
       </c>
       <c r="E5">
-        <v>0.9089</v>
+        <v>0.9065</v>
       </c>
       <c r="F5">
-        <v>0.1071</v>
+        <v>0.1227</v>
       </c>
       <c r="G5">
-        <v>0.08110000000000001</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2521,22 +2521,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.8577</v>
+        <v>5.0647</v>
       </c>
       <c r="C6">
-        <v>61.8551</v>
+        <v>44.8816</v>
       </c>
       <c r="D6">
-        <v>7.8648</v>
+        <v>6.6994</v>
       </c>
       <c r="E6">
-        <v>0.8583</v>
+        <v>0.8935</v>
       </c>
       <c r="F6">
-        <v>0.1374</v>
+        <v>0.1259</v>
       </c>
       <c r="G6">
-        <v>0.0979</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2544,22 +2544,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.5656</v>
+        <v>5.2459</v>
       </c>
       <c r="C7">
-        <v>67.7811</v>
+        <v>58.9721</v>
       </c>
       <c r="D7">
-        <v>8.1989</v>
+        <v>7.4938</v>
       </c>
       <c r="E7">
-        <v>0.8905999999999999</v>
+        <v>0.9127999999999999</v>
       </c>
       <c r="F7">
-        <v>0.1427</v>
+        <v>0.1336</v>
       </c>
       <c r="G7">
-        <v>0.1015</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2567,22 +2567,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.5282</v>
+        <v>1.1107</v>
       </c>
       <c r="C8">
-        <v>12.4227</v>
+        <v>26.1711</v>
       </c>
       <c r="D8">
-        <v>0.7473</v>
+        <v>1.6779</v>
       </c>
       <c r="E8">
-        <v>0.0308</v>
+        <v>0.0329</v>
       </c>
       <c r="F8">
-        <v>0.0249</v>
+        <v>0.0373</v>
       </c>
       <c r="G8">
-        <v>0.0136</v>
+        <v>0.0228</v>
       </c>
     </row>
   </sheetData>
@@ -2629,22 +2629,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>5.4631</v>
+        <v>6.0052</v>
       </c>
       <c r="D2">
-        <v>70.1657</v>
+        <v>63.9287</v>
       </c>
       <c r="E2">
-        <v>8.3765</v>
+        <v>7.9955</v>
       </c>
       <c r="F2">
-        <v>0.8818</v>
+        <v>0.8834</v>
       </c>
       <c r="G2">
-        <v>0.1193</v>
+        <v>0.1203</v>
       </c>
       <c r="H2">
-        <v>0.0859</v>
+        <v>0.0955</v>
       </c>
     </row>
   </sheetData>
